--- a/office/lama penulisan skripsi.xlsx
+++ b/office/lama penulisan skripsi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\timestamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A365AA-6343-4860-87D3-8AD242884306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFE440-C9BD-4ED4-AB3A-43272309278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Lama (Menit)</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Jam</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -399,7 +402,7 @@
     <col min="3" max="3" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -410,110 +413,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <f ca="1">NOW()</f>
-        <v>45600.849861574075</v>
+        <v>45601</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="4">
+        <v>45603</v>
+      </c>
+      <c r="C3" s="1">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <f>SUM(C2:C25)/60</f>
+        <v>1.6333333333333333</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>45603</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>45603</v>
+      </c>
+      <c r="C5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
+        <v>45603</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="4">
+        <v>45603</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>

--- a/office/lama penulisan skripsi.xlsx
+++ b/office/lama penulisan skripsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FFE440-C9BD-4ED4-AB3A-43272309278A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22540CA5-0033-4D73-9B70-FC0E7283EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,6 +52,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -61,7 +64,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +74,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,9 +115,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +401,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,6 +409,7 @@
     <col min="1" max="1" width="4.1796875" customWidth="1"/>
     <col min="2" max="2" width="21.6328125" customWidth="1"/>
     <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -417,7 +427,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>45601</v>
       </c>
       <c r="C2" s="1">
@@ -428,17 +438,17 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>45603</v>
       </c>
       <c r="C3" s="1">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <f>SUM(C2:C25)/60</f>
-        <v>1.6333333333333333</v>
-      </c>
-      <c r="F3" t="s">
+        <v>5.3166666666666664</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -446,7 +456,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>45603</v>
       </c>
       <c r="C4" s="1">
@@ -457,7 +467,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>45603</v>
       </c>
       <c r="C5" s="1">
@@ -468,7 +478,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>45603</v>
       </c>
       <c r="C6" s="1">
@@ -479,7 +489,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>45603</v>
       </c>
       <c r="C7" s="1">
@@ -490,78 +500,122 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="3">
+        <v>45603</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="3">
+        <v>45604</v>
+      </c>
+      <c r="C9" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="3">
+        <v>45606</v>
+      </c>
+      <c r="C10" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="4">
+        <v>45607</v>
+      </c>
+      <c r="C11" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="3">
+        <v>45612</v>
+      </c>
+      <c r="C12" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="3">
+        <v>45614</v>
+      </c>
+      <c r="C13" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="3">
+        <v>45616</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="3">
+        <v>45617</v>
+      </c>
+      <c r="C15" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="3">
+        <v>45621</v>
+      </c>
+      <c r="C16" s="1">
+        <v>23</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="3">
+        <v>45623</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="3">
+        <v>45623</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">

--- a/office/lama penulisan skripsi.xlsx
+++ b/office/lama penulisan skripsi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22540CA5-0033-4D73-9B70-FC0E7283EAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73998B79-FB17-4FDE-8434-493D993AFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="E3" s="5">
         <f>SUM(C2:C25)/60</f>
-        <v>5.3166666666666664</v>
+        <v>6.2833333333333332</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
@@ -621,22 +621,34 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="3">
+        <v>45628</v>
+      </c>
+      <c r="C19" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="B20" s="3">
+        <v>45629</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="B21" s="3">
+        <v>45630</v>
+      </c>
+      <c r="C21" s="1">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">

--- a/office/lama penulisan skripsi.xlsx
+++ b/office/lama penulisan skripsi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73998B79-FB17-4FDE-8434-493D993AFD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A050B70D-339F-41F5-9D10-AC80109ED13F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,8 +445,8 @@
         <v>12</v>
       </c>
       <c r="E3" s="5">
-        <f>SUM(C2:C25)/60</f>
-        <v>6.2833333333333332</v>
+        <f>SUM(C2:C46)/60</f>
+        <v>8.15</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>3</v>
@@ -654,29 +654,196 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="3">
+        <v>45663</v>
+      </c>
+      <c r="C22" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="B23" s="3">
+        <v>45663</v>
+      </c>
+      <c r="C23" s="1">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="3">
+        <v>45663</v>
+      </c>
+      <c r="C24" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="3">
+        <v>45665</v>
+      </c>
+      <c r="C25" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>45666</v>
+      </c>
+      <c r="C26" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
